--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1171872.977756231</v>
+        <v>1228301.840358207</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16659530.99074006</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>606553.2040797154</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6408900.707578357</v>
+        <v>6915088.416193671</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -668,10 +670,10 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>216.7404152131624</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -722,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>393.5654763009462</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +825,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481245</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -877,7 +879,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>50.29424103733356</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,16 +898,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>59.59474737021493</v>
       </c>
       <c r="F5" t="n">
-        <v>159.9278038783255</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>3.139541480023263</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1117,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>102.2146311366279</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>131.7070241743951</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>32.36127543482709</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>35.20092700998688</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738368</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>308.5266790008317</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>283.7406821268369</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1540,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480023263</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1619,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>121.1570449132234</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>145.8387674910519</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1774,7 +1776,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>14.14416275345401</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2011,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998732</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2713,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>53.06991172717003</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2773,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3190,13 +3192,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>120.1472970361153</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3205,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>122.9742767430585</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3430,10 +3432,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>7.26460296736313</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>169.7914649777113</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>81.4938028923543</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3724,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>189.9879808696992</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>145.8387674910519</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>99.92737017624191</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3907,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345373</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>172.6623007436918</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3977,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>47.15019612125887</v>
+        <v>322.9697359233092</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.9257490316895</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174.694299018625</v>
+        <v>978.7890572316417</v>
       </c>
       <c r="C2" t="n">
-        <v>140.5922302424523</v>
+        <v>944.6869884554691</v>
       </c>
       <c r="D2" t="n">
-        <v>108.7228494573009</v>
+        <v>912.8176076703177</v>
       </c>
       <c r="E2" t="n">
-        <v>78.98850865600016</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F2" t="n">
-        <v>55.16148310561195</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1513.270315736198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2190.735900679003</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2737.234686637598</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.582812821435</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.515585694473</v>
+        <v>2451.1311140949</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.293283011491</v>
+        <v>2191.908811411917</v>
       </c>
       <c r="V2" t="n">
-        <v>1811.676332945317</v>
+        <v>1829.291861345744</v>
       </c>
       <c r="W2" t="n">
-        <v>1406.82087835635</v>
+        <v>1424.436406756777</v>
       </c>
       <c r="X2" t="n">
-        <v>1009.279993203879</v>
+        <v>1005.293943336088</v>
       </c>
       <c r="Y2" t="n">
-        <v>600.9938695035328</v>
+        <v>1001.048223676145</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>732.2102786755574</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L3" t="n">
-        <v>732.2102786755574</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M3" t="n">
-        <v>732.2102786755574</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N3" t="n">
-        <v>732.2102786755574</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O3" t="n">
-        <v>732.2102786755574</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P3" t="n">
-        <v>1177.245516579485</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="Q3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>964.0448505953706</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>791.4831390785955</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6051462801182</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>625.6051462801182</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F4" t="n">
-        <v>448.8980922418745</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G4" t="n">
-        <v>283.3068172677021</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H4" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2490.74511363892</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2244.865667217376</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1966.432666470481</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1679.477158340911</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1628.674894666837</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1383.283140000249</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1155.863469314358</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>716.0341243765137</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C5" t="n">
-        <v>681.9320556003411</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D5" t="n">
-        <v>650.0626748151897</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E5" t="n">
-        <v>216.2879299734848</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>489.9993811856698</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1844.930551071281</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>2522.396136014086</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>2522.396136014086</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2522.396136014086</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2374.617736571424</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1969.762281982458</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1550.619818561768</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>1142.333694861421</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M6" t="n">
-        <v>732.2102786755574</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N6" t="n">
-        <v>1409.675863618363</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O6" t="n">
-        <v>1600.811677117221</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P6" t="n">
-        <v>1600.811677117221</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>742.8207098557364</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>570.2589983389613</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>404.381005540484</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>234.6230017912213</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>57.91594775297747</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>54.74469373275195</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2244.865667217376</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.432666470481</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1679.477158340911</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.450753927203</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.058999260615</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.6393285747235</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1482.691478483091</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>1349.654080327137</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>1317.784699541985</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>884.0099547002803</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>456.1425251094881</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>54.74469373275195</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>732.2102786755574</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1409.675863618363</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>2087.141448561168</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>2737.234686637598</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>2737.234686637598</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.379232048631</v>
+        <v>2636.557618877989</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.236768627942</v>
+        <v>2621.455559497704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1504.950644927595</v>
+        <v>2617.209839837762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L9" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M9" t="n">
-        <v>732.2102786755574</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="N9" t="n">
-        <v>1409.675863618363</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="O9" t="n">
-        <v>1717.984455211561</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1717.984455211561</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1717.984455211561</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1133.802854344633</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>961.2411428278582</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>795.3631500293809</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>625.6051462801182</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2671.404303635552</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2635.847811706272</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2357.414810959378</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2070.459302829808</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W10" t="n">
-        <v>1798.4328984161</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1553.041143749512</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1325.62147306362</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1218.343895304528</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
-        <v>780.2014224879513</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D11" t="n">
-        <v>344.2916376623957</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E11" t="n">
-        <v>344.2916376623957</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F11" t="n">
-        <v>344.2916376623957</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G11" t="n">
-        <v>344.2916376623957</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H11" t="n">
-        <v>55.16148310561195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>158.3391458505872</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>835.8047307933927</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>835.8047307933927</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M11" t="n">
-        <v>835.8047307933927</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N11" t="n">
-        <v>835.8047307933927</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>1513.270315736198</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>2190.735900679003</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>2737.234686637598</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>2450.62793701453</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>2045.772482425564</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>1626.630019004875</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>1218.343895304528</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J12" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K12" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L12" t="n">
-        <v>405.3666918594219</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="M12" t="n">
-        <v>405.3666918594219</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="N12" t="n">
-        <v>405.3666918594219</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="O12" t="n">
-        <v>405.3666918594219</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.072738485145</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>742.8207098557364</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C13" t="n">
-        <v>570.2589983389613</v>
+        <v>911.6065991886354</v>
       </c>
       <c r="D13" t="n">
-        <v>404.381005540484</v>
+        <v>745.7286063901581</v>
       </c>
       <c r="E13" t="n">
-        <v>234.6230017912213</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="F13" t="n">
-        <v>57.91594775297747</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G13" t="n">
-        <v>54.74469373275195</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2649.986482340924</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2490.74511363892</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2244.865667217376</v>
+        <v>2586.21326806705</v>
       </c>
       <c r="U13" t="n">
-        <v>1966.432666470481</v>
+        <v>2307.780267320155</v>
       </c>
       <c r="V13" t="n">
-        <v>1679.477158340911</v>
+        <v>2020.824759190585</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.450753927203</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X13" t="n">
-        <v>1162.058999260615</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y13" t="n">
-        <v>934.6393285747235</v>
+        <v>1275.986929424398</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1913.236768627942</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C14" t="n">
-        <v>1475.094295811365</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
-        <v>1039.18451098581</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>605.4097661441047</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>177.5423365533124</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>55.16148310561195</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>55.16148310561195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>54.74469373275195</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>732.2102786755574</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>732.2102786755574</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>1409.675863618363</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>2087.141448561168</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>2737.234686637598</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V14" t="n">
-        <v>2737.234686637598</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W14" t="n">
-        <v>2332.379232048631</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X14" t="n">
-        <v>1913.236768627942</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y14" t="n">
-        <v>1913.236768627942</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>54.74469373275195</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>54.74469373275195</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>363.05328532595</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>1040.518870268755</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>1040.518870268755</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>1717.984455211561</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1717.984455211561</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1717.984455211561</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>742.8207098557364</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C16" t="n">
-        <v>570.2589983389613</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D16" t="n">
-        <v>404.381005540484</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E16" t="n">
-        <v>234.6230017912213</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F16" t="n">
-        <v>220.3359687069243</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2649.986482340924</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2490.74511363892</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T16" t="n">
-        <v>2244.865667217376</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U16" t="n">
-        <v>1966.432666470481</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V16" t="n">
-        <v>1679.477158340911</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.450753927203</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X16" t="n">
-        <v>1162.058999260615</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y16" t="n">
-        <v>934.6393285747235</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,52 +5515,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1021.773653488281</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2178.821488698832</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.440564248063</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>5077.485521609701</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U25" t="n">
-        <v>4799.052520862807</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V25" t="n">
-        <v>4512.097012733238</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>4240.070608319529</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>3994.678853652942</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>3767.25918296705</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,19 +6235,19 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>3135.398407382222</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>4115.578073952528</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1062.363260807472</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
         <v>1008.757289365886</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1726.993304878938</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1481.601550212351</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1254.181879526459</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3575.440564248063</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>3402.878852731288</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>3237.000859932811</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>3067.242856183548</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>2890.535802145304</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>5077.485521609701</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>4799.052520862807</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>4512.097012733238</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>4240.070608319529</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>3994.678853652942</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>3767.25918296705</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O32" t="n">
+        <v>3738.23335274699</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4566.543227580387</v>
+      </c>
+      <c r="Q32" t="n">
         <v>5113.042013538981</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5113.04201353898</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>3449.802252060173</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>3449.802252060173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>3449.802252060173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>3449.802252060173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>4648.527086152673</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>5113.042013538981</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>5113.042013538981</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>5113.042013538981</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>5113.042013538981</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
         <v>5113.042013538981</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3486.780615022739</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>3314.218903505964</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>3148.340910707486</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E34" t="n">
-        <v>2978.582906958224</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F34" t="n">
-        <v>2801.87585291998</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>2636.284577945808</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>4988.825572384377</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>4710.392571637482</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>4423.437063507913</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>4151.410659094205</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>3906.018904427618</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>3678.599233741726</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,19 +6940,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>926.8933538057271</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2001.953320058587</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>3159.001155269137</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>3879.214741978675</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3184.458419759167</v>
+        <v>864.7097725347917</v>
       </c>
       <c r="C37" t="n">
-        <v>3011.896708242392</v>
+        <v>692.1480610180166</v>
       </c>
       <c r="D37" t="n">
-        <v>2846.018715443915</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E37" t="n">
-        <v>2838.680732648598</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F37" t="n">
-        <v>2661.973678610354</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>4686.503377120805</v>
+        <v>2366.754729896431</v>
       </c>
       <c r="U37" t="n">
-        <v>4408.070376373911</v>
+        <v>2088.321729149536</v>
       </c>
       <c r="V37" t="n">
-        <v>4121.114868244342</v>
+        <v>1801.366221019967</v>
       </c>
       <c r="W37" t="n">
-        <v>3849.088463830633</v>
+        <v>1529.339816606258</v>
       </c>
       <c r="X37" t="n">
-        <v>3603.696709164046</v>
+        <v>1283.948061939671</v>
       </c>
       <c r="Y37" t="n">
-        <v>3376.277038478154</v>
+        <v>1056.528391253779</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,22 +7177,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q38" t="n">
         <v>5113.04201353898</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.440564248063</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>3402.878852731288</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.000859932811</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183548</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145304</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171132</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>4932.38282354235</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>4850.06585092381</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>4571.632850176916</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>4284.677342047346</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>4012.650937633638</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>3767.25918296705</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y40" t="n">
-        <v>3767.25918296705</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1790.855915180241</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.713442363665</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>916.8036575381091</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>483.0289126964042</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>55.16148310561195</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>55.16148310561195</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>55.16148310561195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>732.2102786755574</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>1409.675863618363</v>
+        <v>3595.48288019336</v>
       </c>
       <c r="N41" t="n">
-        <v>2087.141448561168</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="O41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="P41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W41" t="n">
-        <v>2737.234686637598</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>2318.092223216909</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
-        <v>2217.155485665149</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>3531.436949455168</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>3424.98048829181</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>3329.890199438363</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>3235.769784765317</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>3152.385946381479</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>3067.000856647663</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>3025.265204463875</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>3051.328877624333</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>3375.887202590545</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>4571.332187848344</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>4625.049528391067</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>4494.870884721669</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>4318.534337721637</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>4119.416819783636</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>3934.09406551683</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>3779.22662975571</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>3652.740850534931</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1133.802854344633</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C43" t="n">
-        <v>961.2411428278582</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D43" t="n">
-        <v>795.3631500293809</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E43" t="n">
-        <v>625.6051462801182</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F43" t="n">
-        <v>448.8980922418745</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2490.74511363892</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2244.865667217376</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2070.459302829808</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>2070.459302829808</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1798.4328984161</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1553.041143749512</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1325.62147306362</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2090.867889025729</v>
+        <v>2408.082100998617</v>
       </c>
       <c r="C44" t="n">
-        <v>2043.241428297184</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>1607.331643471629</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>1173.556898629924</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>745.6894690391318</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>344.2916376623957</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K44" t="n">
-        <v>489.9993811856698</v>
+        <v>679.2244748496752</v>
       </c>
       <c r="L44" t="n">
-        <v>1167.464966128475</v>
+        <v>1754.284441102535</v>
       </c>
       <c r="M44" t="n">
-        <v>1844.930551071281</v>
+        <v>1754.284441102535</v>
       </c>
       <c r="N44" t="n">
-        <v>2522.396136014086</v>
+        <v>2880.015424538982</v>
       </c>
       <c r="O44" t="n">
-        <v>2568.080621884541</v>
+        <v>3860.195091109288</v>
       </c>
       <c r="P44" t="n">
-        <v>2568.080621884541</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>2517.167459510636</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U44" t="n">
-        <v>2517.167459510636</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V44" t="n">
-        <v>2517.167459510636</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W44" t="n">
-        <v>2517.167459510636</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X44" t="n">
-        <v>2517.167459510636</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y44" t="n">
-        <v>2517.167459510636</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1580.166670150082</v>
+        <v>3531.436949455168</v>
       </c>
       <c r="C45" t="n">
-        <v>1473.710208986724</v>
+        <v>3424.98048829181</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.619920133277</v>
+        <v>3329.890199438363</v>
       </c>
       <c r="E45" t="n">
-        <v>1284.499505460231</v>
+        <v>3235.769784765317</v>
       </c>
       <c r="F45" t="n">
-        <v>1201.115667076393</v>
+        <v>3152.385946381479</v>
       </c>
       <c r="G45" t="n">
-        <v>1115.730577342577</v>
+        <v>3067.000856647663</v>
       </c>
       <c r="H45" t="n">
-        <v>1073.994925158789</v>
+        <v>3025.265204463875</v>
       </c>
       <c r="I45" t="n">
-        <v>1100.058598319247</v>
+        <v>3051.328877624333</v>
       </c>
       <c r="J45" t="n">
-        <v>1424.616923285459</v>
+        <v>3375.887202590545</v>
       </c>
       <c r="K45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="L45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="M45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="N45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="O45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="P45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="Q45" t="n">
-        <v>2620.061908543259</v>
+        <v>4571.332187848344</v>
       </c>
       <c r="R45" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S45" t="n">
-        <v>2673.779249085981</v>
+        <v>4625.049528391067</v>
       </c>
       <c r="T45" t="n">
-        <v>2543.600605416583</v>
+        <v>4494.870884721669</v>
       </c>
       <c r="U45" t="n">
-        <v>2367.264058416551</v>
+        <v>4318.534337721637</v>
       </c>
       <c r="V45" t="n">
-        <v>2168.14654047855</v>
+        <v>4119.416819783636</v>
       </c>
       <c r="W45" t="n">
-        <v>1982.823786211744</v>
+        <v>3934.09406551683</v>
       </c>
       <c r="X45" t="n">
-        <v>1827.956350450624</v>
+        <v>3779.22662975571</v>
       </c>
       <c r="Y45" t="n">
-        <v>1701.470571229845</v>
+        <v>3652.740850534931</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1199.63323734668</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C46" t="n">
-        <v>1027.071525829905</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D46" t="n">
-        <v>861.1935330314275</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E46" t="n">
-        <v>691.4355292821647</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F46" t="n">
-        <v>514.7284752439209</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G46" t="n">
-        <v>349.1372002697486</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H46" t="n">
-        <v>209.2350259601232</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>120.5750767347985</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>207.1547618994884</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>481.9132164706239</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>900.123098238585</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1359.606965419498</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1801.865768577142</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2221.535017802924</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2569.041911773266</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2737.234686637598</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2737.234686637598</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2737.234686637598</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T46" t="n">
-        <v>2491.355240216053</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U46" t="n">
-        <v>2212.922239469158</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V46" t="n">
-        <v>1925.966731339589</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W46" t="n">
-        <v>1653.94032692588</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X46" t="n">
-        <v>1408.548572259293</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y46" t="n">
-        <v>1391.451856065667</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>349.2983329370936</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>449.5305433373007</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.1459453236921</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,19 +8297,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>193.0664782816748</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,25 +8455,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>656.6598364408383</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8538,13 +8540,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
-        <v>311.4228197911089</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>104.6408607250861</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>597.4989238114804</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P14" t="n">
-        <v>656.6598364408383</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9000,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,10 +9184,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1135.078089798389</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,19 +10357,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>832.9621348837854</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10598,10 +10600,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446122</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10838,10 +10840,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>1104.062712878105</v>
       </c>
       <c r="O41" t="n">
-        <v>656.6598364408383</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>591.3680560917389</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593996</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>46.1459453236921</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>125.2343690875792</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>75.25009843867485</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>276.2268081497453</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,10 +23551,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>110.7913121651014</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473419</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>44.07191583437722</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>120.4463752142708</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>160.795820744407</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>73.629186979618</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>161.926849064975</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>52.9498562502225</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,19 +25684,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>110.7913121651014</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>304.2758922871012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>102.9863699957339</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>386.610851967152</v>
+        <v>110.7913121651017</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>611924.5076029621</v>
+        <v>611792.1818835943</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>611924.5076029621</v>
+        <v>611792.1818835943</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>611924.5076029621</v>
+        <v>611792.1818835943</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>395060.0644312507</v>
+        <v>568432.9829405934</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>395060.0644312506</v>
+        <v>568432.9829405934</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>606153.6553342313</v>
+        <v>606153.6553342312</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606153.6553342312</v>
+        <v>606153.6553342313</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>606153.6553342314</v>
+        <v>606153.6553342313</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>395060.0644312507</v>
+        <v>568432.9829405934</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>395060.0644312506</v>
+        <v>568432.9829405934</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315052</v>
       </c>
       <c r="C2" t="n">
-        <v>335092.0749315052</v>
+        <v>335092.0749315053</v>
       </c>
       <c r="D2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315054</v>
       </c>
       <c r="E2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678432</v>
       </c>
       <c r="F2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678433</v>
       </c>
       <c r="G2" t="n">
         <v>329285.9900858451</v>
@@ -26338,22 +26340,22 @@
         <v>329285.9900858451</v>
       </c>
       <c r="K2" t="n">
+        <v>329285.990085845</v>
+      </c>
+      <c r="L2" t="n">
         <v>329285.9900858451</v>
-      </c>
-      <c r="L2" t="n">
-        <v>329285.990085845</v>
       </c>
       <c r="M2" t="n">
         <v>329285.9900858451</v>
       </c>
       <c r="N2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="O2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678432</v>
       </c>
       <c r="P2" t="n">
-        <v>214611.828724999</v>
+        <v>308794.6693678432</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119310.1515554629</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="C4" t="n">
-        <v>119310.1515554629</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>119310.1515554629</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>9284.299089827527</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="F4" t="n">
-        <v>9284.299089827527</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9284.299089827527</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="P4" t="n">
-        <v>9284.299089827527</v>
+        <v>13358.73276318392</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88779.21883336217</v>
+        <v>-84951.00143943256</v>
       </c>
       <c r="C6" t="n">
-        <v>140548.3561391508</v>
+        <v>138748.6971446123</v>
       </c>
       <c r="D6" t="n">
-        <v>140548.3561391507</v>
+        <v>138748.6971446124</v>
       </c>
       <c r="E6" t="n">
-        <v>163721.5623982801</v>
+        <v>73504.90755058256</v>
       </c>
       <c r="F6" t="n">
-        <v>163721.5623982801</v>
+        <v>224170.6611223306</v>
       </c>
       <c r="G6" t="n">
-        <v>74529.25811111851</v>
+        <v>208232.7367369521</v>
       </c>
       <c r="H6" t="n">
         <v>237322.5459095598</v>
@@ -26543,25 +26545,25 @@
         <v>237322.5459095599</v>
       </c>
       <c r="J6" t="n">
-        <v>58277.28782190799</v>
+        <v>62671.19719185377</v>
       </c>
       <c r="K6" t="n">
+        <v>237322.5459095598</v>
+      </c>
+      <c r="L6" t="n">
+        <v>237322.54590956</v>
+      </c>
+      <c r="M6" t="n">
+        <v>111571.4575738692</v>
+      </c>
+      <c r="N6" t="n">
         <v>237322.5459095599</v>
       </c>
-      <c r="L6" t="n">
-        <v>237322.5459095598</v>
-      </c>
-      <c r="M6" t="n">
-        <v>237322.5459095599</v>
-      </c>
-      <c r="N6" t="n">
-        <v>237322.54590956</v>
-      </c>
       <c r="O6" t="n">
-        <v>163721.5623982801</v>
+        <v>224170.6611223305</v>
       </c>
       <c r="P6" t="n">
-        <v>163721.56239828</v>
+        <v>224170.6611223305</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27388,10 +27390,10 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.126139642529353</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>21.38556248553624</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27543,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>84.63380825304888</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>219.0118993322378</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>369.8422500230728</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>263.6609514165588</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27673,7 +27675,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>122.9308428424049</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>302.0540239140158</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>326.6295051306847</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>208.2197249473424</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>102.9863699957345</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34699,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>349.2983329370936</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>449.5305433373007</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34936,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.1459453236921</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>193.0664782816748</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35173,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>656.6598364408383</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35258,13 +35260,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
-        <v>311.4228197911089</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>104.6408607250861</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>597.4989238114804</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35576,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P14" t="n">
-        <v>656.6598364408383</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35813,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35902,10 +35904,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,22 +36603,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1135.078089798389</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>832.9621348837854</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,13 +37317,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446122</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>1104.062712878105</v>
       </c>
       <c r="O41" t="n">
-        <v>656.6598364408383</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,7 +37946,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>591.3680560917389</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593996</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>46.1459453236921</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1228301.840358207</v>
+        <v>1227695.752729309</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074006</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797154</v>
+        <v>606553.2040797155</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.7404152131624</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -721,10 +721,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>124.969899195705</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -822,19 +822,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>90.30617524481245</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>109.1426757626845</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -901,10 +901,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>59.59474737021493</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>42.56716559683519</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765157</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>102.2146311366279</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>327.8854152649144</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>32.36127543482709</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>240.9739924675</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>166.3197703738368</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>308.5266790008317</v>
+        <v>21.87520451048465</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1387,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>145.4261460119205</v>
       </c>
       <c r="U14" t="n">
-        <v>145.8387674910519</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765157</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2013,7 +2013,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>30.80549757377427</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2022,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2487,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>131.9969996527466</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3192,22 +3192,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>120.1472970361153</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>169.7914649777113</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>199.4521447952249</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>189.9879808696992</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>145.8387674910519</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>233.7564114779322</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3909,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>14.14416275345373</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>35.51678257079479</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>322.9697359233092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>3.065195208556083</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4140,10 +4140,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>54.18430635300755</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225757</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>978.7890572316417</v>
+        <v>1674.602188492498</v>
       </c>
       <c r="C2" t="n">
-        <v>944.6869884554691</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D2" t="n">
-        <v>912.8176076703177</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E2" t="n">
-        <v>883.0832668690169</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148855</v>
@@ -4330,19 +4330,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2451.1311140949</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2191.908811411917</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>1829.291861345744</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W2" t="n">
-        <v>1424.436406756777</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X2" t="n">
-        <v>1005.293943336088</v>
+        <v>1701.107074596944</v>
       </c>
       <c r="Y2" t="n">
-        <v>1001.048223676145</v>
+        <v>1696.861354937001</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4470,16 +4470,16 @@
         <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363599</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="E4" t="n">
-        <v>233.2795245870971</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0611657539532</v>
+        <v>392.2084670965934</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.477214236518</v>
+        <v>866.1045910388293</v>
       </c>
       <c r="C5" t="n">
-        <v>573.3347414199409</v>
+        <v>427.9621182222527</v>
       </c>
       <c r="D5" t="n">
-        <v>137.4249565943854</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901677</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
         <v>53.40121652862856</v>
@@ -4582,10 +4582,10 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q5" t="n">
         <v>2500.906761678371</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>1700.690285224084</v>
       </c>
       <c r="Y5" t="n">
-        <v>1437.776784721425</v>
+        <v>1292.404161523737</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1375.081325612185</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1375.081325612185</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1375.081325612185</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4752,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431416</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X7" t="n">
-        <v>1427.525098017707</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2190.910269352854</v>
+        <v>793.6783655277644</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.767796536277</v>
+        <v>759.5762967515918</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.858011710722</v>
+        <v>727.7069159664404</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>697.9725751651397</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>674.1455496147515</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4804,28 +4804,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1375.081325612185</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612185</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N8" t="n">
-        <v>1375.081325612185</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4837,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2637.372669426552</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>2636.557618877989</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.455559497704</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2617.209839837762</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>740.3049442308645</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1401.144998772643</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1965.089189266357</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
-        <v>1792.719889953642</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1356.810105128087</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>923.035360286382</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>495.1679306955898</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>93.77009931885368</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
         <v>93.77009931885368</v>
@@ -5044,13 +5044,13 @@
         <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1363.37507872995</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="L11" t="n">
-        <v>2164.36257382733</v>
+        <v>1604.084753024631</v>
       </c>
       <c r="M11" t="n">
-        <v>2164.36257382733</v>
+        <v>1604.084753024631</v>
       </c>
       <c r="N11" t="n">
         <v>2164.36257382733</v>
@@ -5117,28 +5117,28 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>1048.313148129957</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>1048.313148129957</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1048.313148129957</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1048.313148129957</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1084.16831070541</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C13" t="n">
-        <v>911.6065991886354</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D13" t="n">
-        <v>745.7286063901581</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E13" t="n">
-        <v>575.9706026408953</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F13" t="n">
-        <v>399.2635486026515</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G13" t="n">
-        <v>233.6722736284792</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H13" t="n">
         <v>93.77009931885368</v>
@@ -5229,22 +5229,22 @@
         <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2586.21326806705</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U13" t="n">
-        <v>2307.780267320155</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V13" t="n">
-        <v>2020.824759190585</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W13" t="n">
-        <v>1748.798354776877</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X13" t="n">
-        <v>1503.406600110289</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y13" t="n">
-        <v>1275.986929424398</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2519.992517327003</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>2081.850044510426</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1645.940259684871</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
         <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>529.0247867717716</v>
+        <v>424.1063803693496</v>
       </c>
       <c r="K14" t="n">
-        <v>1363.37507872995</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L14" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
         <v>3313.696305150693</v>
@@ -5308,22 +5308,22 @@
         <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4688.504965942684</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="U14" t="n">
-        <v>4541.193079588086</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V14" t="n">
-        <v>4178.576129521913</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W14" t="n">
-        <v>3773.720674932946</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>3354.578211512257</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2946.29208781191</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
         <v>1099.098144071247</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.266136395785</v>
+        <v>1032.92608562111</v>
       </c>
       <c r="C16" t="n">
-        <v>771.7044248790099</v>
+        <v>860.3643741043346</v>
       </c>
       <c r="D16" t="n">
-        <v>605.8264320805326</v>
+        <v>694.4863813058573</v>
       </c>
       <c r="E16" t="n">
-        <v>436.0684283312698</v>
+        <v>524.7283775565945</v>
       </c>
       <c r="F16" t="n">
-        <v>259.361374293026</v>
+        <v>348.0213235183507</v>
       </c>
       <c r="G16" t="n">
-        <v>93.77009931885368</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885368</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
         <v>93.77009931885368</v>
@@ -5463,25 +5463,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2692.190540178969</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.311093757424</v>
+        <v>2534.971042982749</v>
       </c>
       <c r="U16" t="n">
-        <v>2167.878093010529</v>
+        <v>2256.538042235854</v>
       </c>
       <c r="V16" t="n">
-        <v>1880.92258488096</v>
+        <v>1969.582534106285</v>
       </c>
       <c r="W16" t="n">
-        <v>1608.896180467251</v>
+        <v>1697.556129692576</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.504425800664</v>
+        <v>1452.164375025989</v>
       </c>
       <c r="Y16" t="n">
-        <v>1136.084755114772</v>
+        <v>1224.744704340097</v>
       </c>
     </row>
     <row r="17">
@@ -5542,7 +5542,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>527.5309029958357</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2594.704009018975</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,10 +5758,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>137.965694649704</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>137.965694649704</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176947</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6414,22 +6414,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6472,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176684</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6840,19 +6840,19 @@
         <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>496.4142387799021</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>496.4142387799021</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6940,22 +6940,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>926.8933538057271</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2001.953320058587</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3159.001155269137</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>4284.732138705584</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705584</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>864.7097725347917</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C37" t="n">
-        <v>692.1480610180166</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D37" t="n">
-        <v>526.2700682195393</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E37" t="n">
-        <v>356.5120644702766</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702766</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G37" t="n">
         <v>190.9207894961043</v>
@@ -7125,22 +7125,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2366.754729896431</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2088.321729149536</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1801.366221019967</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W37" t="n">
-        <v>1529.339816606258</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X37" t="n">
-        <v>1283.948061939671</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.528391253779</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7174,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1284.477670376323</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2519.992517327003</v>
+        <v>2230.862362770219</v>
       </c>
       <c r="C41" t="n">
-        <v>2081.850044510426</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D41" t="n">
-        <v>1645.940259684871</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.165514843166</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H41" t="n">
         <v>93.77009931885368</v>
@@ -7420,16 +7420,16 @@
         <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>3595.48288019336</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>4688.504965942684</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>4688.504965942684</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>4688.504965942684</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
         <v>4688.504965942684</v>
@@ -7438,25 +7438,25 @@
         <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4688.504965942684</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.193079588086</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.576129521913</v>
+        <v>3889.44597496513</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.720674932946</v>
+        <v>3484.590520376163</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.578211512257</v>
+        <v>3065.448056955473</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.29208781191</v>
+        <v>2657.161933255127</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3531.436949455168</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>3424.98048829181</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>3329.890199438363</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>3235.769784765317</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>3152.385946381479</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>3067.000856647663</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>3025.265204463875</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>3051.328877624333</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>3375.887202590545</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>4030.593249216269</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L42" t="n">
-        <v>4030.593249216269</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M42" t="n">
-        <v>4030.593249216269</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N42" t="n">
-        <v>4030.593249216269</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O42" t="n">
-        <v>4030.593249216269</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P42" t="n">
-        <v>4030.593249216269</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>4571.332187848344</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>4688.504965942684</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>4625.049528391067</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>4494.870884721669</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>4318.534337721637</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>4119.416819783636</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>3934.09406551683</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>3779.22662975571</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>3652.740850534931</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8461154418378</v>
+        <v>1068.801623571407</v>
       </c>
       <c r="C43" t="n">
-        <v>609.2844039250627</v>
+        <v>896.2399120546323</v>
       </c>
       <c r="D43" t="n">
-        <v>443.4064111265855</v>
+        <v>730.361919256155</v>
       </c>
       <c r="E43" t="n">
-        <v>273.6484073773227</v>
+        <v>560.6039155068922</v>
       </c>
       <c r="F43" t="n">
-        <v>259.361374293026</v>
+        <v>383.8968614686485</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885368</v>
+        <v>218.3055864944761</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885368</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I43" t="n">
         <v>93.77009931885368</v>
@@ -7605,16 +7605,16 @@
         <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927013</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1733.431667642874</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846717</v>
+        <v>1488.039912976286</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.664734160825</v>
+        <v>1260.620242290395</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2408.082100998617</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>2081.850044510426</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>1645.940259684871</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
         <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885368</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>679.2244748496752</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1754.284441102535</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>1754.284441102535</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>2880.015424538982</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3860.195091109288</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>4688.504965942684</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
         <v>4688.504965942684</v>
@@ -7675,25 +7675,25 @@
         <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4688.504965942684</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>4429.282663259701</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>4066.665713193527</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>3661.810258604561</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>3242.667795183871</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2834.381671483525</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3531.436949455168</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>3424.98048829181</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>3329.890199438363</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>3235.769784765317</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>3152.385946381479</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>3067.000856647663</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>3025.265204463875</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>3051.328877624333</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>3375.887202590545</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>4030.593249216269</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L45" t="n">
-        <v>4030.593249216269</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M45" t="n">
-        <v>4030.593249216269</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N45" t="n">
-        <v>4030.593249216269</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O45" t="n">
-        <v>4030.593249216269</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P45" t="n">
-        <v>4030.593249216269</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>4571.332187848344</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>4688.504965942684</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>4625.049528391067</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>4494.870884721669</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>4318.534337721637</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>4119.416819783636</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>3934.09406551683</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>3779.22662975571</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>3652.740850534931</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>962.5053054384693</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C46" t="n">
-        <v>789.9435939216943</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D46" t="n">
-        <v>624.065601123217</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="E46" t="n">
-        <v>454.3075973739543</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="F46" t="n">
-        <v>277.6005433357104</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G46" t="n">
-        <v>112.0092683615381</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H46" t="n">
         <v>93.77009931885368</v>
@@ -7833,25 +7833,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2710.429709221653</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2464.550262800109</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2186.117262053214</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V46" t="n">
-        <v>1899.161753923644</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W46" t="n">
-        <v>1627.135349509936</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X46" t="n">
-        <v>1381.743594843348</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y46" t="n">
-        <v>1154.323924157457</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>345.0097498941943</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8230,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078568</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>88.52591951400996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8692,16 +8692,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0782778761422</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>565.9371927299994</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>597.4989238114804</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>884.1022829978629</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9008,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9655,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,22 +9719,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10120,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>314.2706063049995</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10430,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>832.9621348837854</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10600,13 +10600,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10843,10 +10843,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11068,19 +11068,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1104.062712878105</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>591.3680560917389</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11317,7 +11317,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>125.2343690875792</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23469,7 +23469,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>72.44040884377128</v>
       </c>
       <c r="U14" t="n">
-        <v>110.7913121651014</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>69.71657238081363</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>144.1344859240871</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>52.42554389793628</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>44.07191583437722</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>73.629186979618</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>84.6338082530489</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>52.9498562502225</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>110.7913121651014</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>125.2343690875795</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>102.9863699957344</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>110.7913121651017</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>110.034906517485</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>568432.9829405934</v>
+        <v>568432.9829405935</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>606153.6553342312</v>
+        <v>606153.6553342313</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>606153.6553342313</v>
+        <v>606153.6553342312</v>
       </c>
     </row>
     <row r="11">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335092.0749315052</v>
+        <v>335092.0749315053</v>
       </c>
       <c r="C2" t="n">
         <v>335092.0749315053</v>
       </c>
       <c r="D2" t="n">
-        <v>335092.0749315054</v>
+        <v>335092.0749315052</v>
       </c>
       <c r="E2" t="n">
         <v>308794.6693678432</v>
@@ -26331,31 +26331,31 @@
         <v>329285.9900858451</v>
       </c>
       <c r="H2" t="n">
+        <v>329285.9900858451</v>
+      </c>
+      <c r="I2" t="n">
         <v>329285.990085845</v>
-      </c>
-      <c r="I2" t="n">
-        <v>329285.9900858451</v>
       </c>
       <c r="J2" t="n">
         <v>329285.9900858451</v>
       </c>
       <c r="K2" t="n">
+        <v>329285.9900858451</v>
+      </c>
+      <c r="L2" t="n">
         <v>329285.990085845</v>
       </c>
-      <c r="L2" t="n">
-        <v>329285.9900858451</v>
-      </c>
       <c r="M2" t="n">
-        <v>329285.9900858451</v>
+        <v>329285.990085845</v>
       </c>
       <c r="N2" t="n">
-        <v>329285.9900858451</v>
+        <v>329285.9900858452</v>
       </c>
       <c r="O2" t="n">
         <v>308794.6693678432</v>
       </c>
       <c r="P2" t="n">
-        <v>308794.6693678432</v>
+        <v>308794.6693678433</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="C4" t="n">
         <v>122130.8532251352</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84951.00143943256</v>
+        <v>-84951.00143943257</v>
       </c>
       <c r="C6" t="n">
         <v>138748.6971446123</v>
       </c>
       <c r="D6" t="n">
-        <v>138748.6971446124</v>
+        <v>138748.6971446123</v>
       </c>
       <c r="E6" t="n">
-        <v>73504.90755058256</v>
+        <v>73399.71792832785</v>
       </c>
       <c r="F6" t="n">
-        <v>224170.6611223306</v>
+        <v>224065.4715000759</v>
       </c>
       <c r="G6" t="n">
-        <v>208232.7367369521</v>
+        <v>208209.5123975695</v>
       </c>
       <c r="H6" t="n">
-        <v>237322.5459095598</v>
+        <v>237299.3215701772</v>
       </c>
       <c r="I6" t="n">
-        <v>237322.5459095599</v>
+        <v>237299.3215701772</v>
       </c>
       <c r="J6" t="n">
-        <v>62671.19719185377</v>
+        <v>62647.97285247113</v>
       </c>
       <c r="K6" t="n">
-        <v>237322.5459095598</v>
+        <v>237299.3215701772</v>
       </c>
       <c r="L6" t="n">
-        <v>237322.54590956</v>
+        <v>237299.3215701772</v>
       </c>
       <c r="M6" t="n">
-        <v>111571.4575738692</v>
+        <v>111548.2332344864</v>
       </c>
       <c r="N6" t="n">
-        <v>237322.5459095599</v>
+        <v>237299.3215701774</v>
       </c>
       <c r="O6" t="n">
-        <v>224170.6611223305</v>
+        <v>224065.4715000759</v>
       </c>
       <c r="P6" t="n">
-        <v>224170.6611223305</v>
+        <v>224065.4715000759</v>
       </c>
     </row>
   </sheetData>
@@ -27384,19 +27384,19 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>1.126139642529353</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>289.9811395907774</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>84.63380825304888</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>54.79268646174607</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>369.8422500230728</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>372.3838731896472</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>69.71657238081363</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.9308428424049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>69.49843779805434</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>326.6295051306847</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.446659489829244</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>102.9863699957345</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>345.0097498941943</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34950,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078568</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>88.52591951400996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35412,16 +35412,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0782778761422</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>565.9371927299994</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>597.4989238114804</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35661,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>884.1022829978629</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35728,22 +35728,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36375,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36840,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36913,22 +36913,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>314.2706063049995</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>832.9621348837854</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37317,13 +37317,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37554,19 +37554,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37788,19 +37788,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1104.062712878105</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>591.3680560917389</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38037,7 +38037,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
